--- a/biology/Botanique/Jardin_floral_du_château_de_Digeon/Jardin_floral_du_château_de_Digeon.xlsx
+++ b/biology/Botanique/Jardin_floral_du_château_de_Digeon/Jardin_floral_du_château_de_Digeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+          <t>Jardin_floral_du_château_de_Digeon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin floral du château de Digeon, situé sur la commune de Morvillers-Saint-Saturnin dans le département de la Somme, est un jardin privé ouvert à la visite.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+          <t>Jardin_floral_du_château_de_Digeon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,20 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine se compose de quatre parties distinctes :
-Le château et la ferme
-La ferme et le château sont bâtis en brique en style Napoléon III. La transformation des anciens communs en une ferme modèle, construite entre 1860 et 1868, témoigne des progrès de l’agriculture au XIXe siècle. 
-Le château de style néo-classique brique et pierre, est protégé partiellement en tant que monument historique (façades et toitures) : inscription par arrêté du 27 décembre 2004[1].
-La ferme modèle est protégée en tant que monument historique : classement par arrêté du 10 octobre 2005[1]
-Le parc
-Le parc paysager à l’anglaise, d’une superficie de deux hectares, a gardé l'essentiel de l'ancien ordonnancement, avec les pelouses principales, les espaces arborés dans lesquels on peut voir un séquoia géant de 8 mètres de circonférence et d'environ 38 mètres de haut[2] et un séquoia pendulum, les clôtures intérieures… Un sentier botanique, planté de vivaces sauvages de Picardie permet de le découvrir.
-Le jardin potager
-Le potager reconstitué sur le même emplacement a gardé ses anciennes limites. De forme rectangulaire, c’est un jardin à la française de 3 500 m2, véritable jardin d’agrément où les légumes alternent avec des arbustes et des plantes vivaces. Les massifs sont entourés de bordures de buis. 
-La roseraie
-Située derrière la ferme, elle rassemble des dizaines d’espèces de rosiers modernes d’une longue durée de floraison et quelques espèces anciennes.
-Le parc et le jardin, y compris le potager, sont protégés en tant que monument historique : inscription par arrêté du 27 décembre 2004[1].
 </t>
         </is>
       </c>
@@ -536,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+          <t>Jardin_floral_du_château_de_Digeon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,26 +554,250 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le château et la ferme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ferme et le château sont bâtis en brique en style Napoléon III. La transformation des anciens communs en une ferme modèle, construite entre 1860 et 1868, témoigne des progrès de l’agriculture au XIXe siècle. 
+Le château de style néo-classique brique et pierre, est protégé partiellement en tant que monument historique (façades et toitures) : inscription par arrêté du 27 décembre 2004.
+La ferme modèle est protégée en tant que monument historique : classement par arrêté du 10 octobre 2005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_floral_du_château_de_Digeon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le parc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc paysager à l’anglaise, d’une superficie de deux hectares, a gardé l'essentiel de l'ancien ordonnancement, avec les pelouses principales, les espaces arborés dans lesquels on peut voir un séquoia géant de 8 mètres de circonférence et d'environ 38 mètres de haut et un séquoia pendulum, les clôtures intérieures… Un sentier botanique, planté de vivaces sauvages de Picardie permet de le découvrir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_floral_du_château_de_Digeon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le jardin potager</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le potager reconstitué sur le même emplacement a gardé ses anciennes limites. De forme rectangulaire, c’est un jardin à la française de 3 500 m2, véritable jardin d’agrément où les légumes alternent avec des arbustes et des plantes vivaces. Les massifs sont entourés de bordures de buis. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_floral_du_château_de_Digeon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La roseraie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située derrière la ferme, elle rassemble des dizaines d’espèces de rosiers modernes d’une longue durée de floraison et quelques espèces anciennes.
+Le parc et le jardin, y compris le potager, sont protégés en tant que monument historique : inscription par arrêté du 27 décembre 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_floral_du_château_de_Digeon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Flore (listes non exhaustives)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbres remarquables
-Ginkgo biloba
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ginkgo biloba
 Mélèze d'Europe
 Poiriers centenaires
 Séquoia
 Tulipier  géant
-Virgilier à bois jaune (Cladrastis)
-Arbustes
-Érable du Japon
+Virgilier à bois jaune (Cladrastis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_floral_du_château_de_Digeon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Flore (listes non exhaustives)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arbustes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Érable du Japon
 Houx panachés
 Hydrangeas
 Rhododendrons
-Viburnum
-Plantes vivaces
-Hostas
+Viburnum</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_floral_du_château_de_Digeon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_floral_du_ch%C3%A2teau_de_Digeon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Flore (listes non exhaustives)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes vivaces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hostas
 Iris
 Géraniums 
 Le plan d’eau, la cascade, une statue, des grottes, des nymphées… complètent l’ornementation.
